--- a/vocabularies/microscopy/1.2/microscopy_1-2.xlsx
+++ b/vocabularies/microscopy/1.2/microscopy_1-2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="720">
   <si>
     <t>synonyms</t>
   </si>
@@ -80,7 +80,7 @@
     <t>scanning electron microscope (SEM)</t>
   </si>
   <si>
-    <t>#scanning electrone microscope#scanning electron microscope</t>
+    <t>#scanning electrone microscope#scanning electron microscope#sem images</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/microscopy/1.2/apparatus-electron_microscopy-scanning_electron_microscope_sem</t>
@@ -134,7 +134,7 @@
     <t>X-ray computed tomographic (CT) scanner</t>
   </si>
   <si>
-    <t>#ct scanner#tomograph#xray computed tomographic scanner ctscan#xray scanner#x-ray scanner#x-ray tomograph#xray tomograph#x-ray computed tomographic (ct) scanning of analogue models#x-ray imaging during testing</t>
+    <t>#ct scanner#tomograph#xray computed tomographic scanner ctscan#xray scanner#x-ray scanner#x-ray tomograph#xray tomograph#x-ray computed tomographic (ct) scanning of analogue models#x-ray imaging during testing#ct-scan#ct-scans#ct scan#ct scans#ct scanning#ct-scanning</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/microscopy/1.2/apparatus-x-ray_computed_tomographic_ct_scanner</t>
@@ -1662,6 +1662,9 @@
   </si>
   <si>
     <t>grain size distribution</t>
+  </si>
+  <si>
+    <t>#particle size distribution</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/microscopy/1.2/analyzed_feature-grain_size_and_configuration-grain_size-grain_size_distribution</t>
@@ -4639,663 +4642,666 @@
       <c r="D230" t="s">
         <v>548</v>
       </c>
+      <c r="F230" t="s">
+        <v>549</v>
+      </c>
       <c r="G230" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="C231" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F231" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G231" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="C232" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F232" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G232" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="C233" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F233" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G233" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="C234" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G234" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="C235" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F235" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G235" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G236" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="C237" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G237" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="C238" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G238" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="C239" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G239" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G240" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="C241" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G241" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="C242" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G242" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="C243" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G243" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="C244" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G244" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="C245" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G245" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G246" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="C247" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F247" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G247" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="C248" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F248" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G248" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="D249" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F249" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G249" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="D250" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G250" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="D251" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F251" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G251" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="D252" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F252" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G252" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="C253" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F253" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G253" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="C254" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F254" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G254" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="C255" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F255" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G255" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="C256" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G256" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="C257" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G257" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="C258" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G258" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G259" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="C260" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F260" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G260" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="D261" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F261" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G261" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="C262" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F262" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G262" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="C263" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F263" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G263" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="C264" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F264" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G264" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="C265" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G265" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="C266" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G266" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G267" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="C268" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G268" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="C269" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G269" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="C270" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G270" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="C271" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F271" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G271" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="C272" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G272" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="C273" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G273" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="C274" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G274" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="C275" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G275" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="C276" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G276" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="C277" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G277" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G278" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F279" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G279" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="C280" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G280" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="C281" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G281" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="C282" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G282" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="C283" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G283" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F284" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G284" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="C285" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G285" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="C286" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G286" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="C287" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G287" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="C288" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G288" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="C289" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G289" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="C290" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G290" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G291" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="C292" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G292" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="C293" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G293" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="C294" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G294" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="D295" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G295" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="C296" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G296" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="C297" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F297" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G297" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G298" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="C299" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G299" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="D300" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G300" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="D301" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G301" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="D302" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G302" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="D303" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G303" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="C304" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G304" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
